--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_en.xlsx
@@ -97,9 +97,6 @@
     <t>Information to complete the sheet:</t>
   </si>
   <si>
-    <t>For questions please contact Dr. Armin Weiser, +49 (30) 18412-2118, armin.weiser@bfr.bund.de</t>
-  </si>
-  <si>
     <t>Fill in incoming goods which are already known (see grey fields above).</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
 Incoming Goods</t>
     </r>
   </si>
+  <si>
+    <t>For questions please contact the FoodRisk-Labs team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
+  </si>
 </sst>
 </file>
 
@@ -433,7 +433,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,8 +607,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -963,26 +969,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1352,7 +1338,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1382,15 +1368,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1457,7 +1434,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1489,11 +1466,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1509,7 +1486,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1529,26 +1506,19 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1556,6 +1526,130 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1564,29 +1658,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1594,129 +1671,48 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="36" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="36" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2137,7 +2133,9 @@
   </sheetPr>
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2153,50 +2151,50 @@
     <col min="11" max="11" width="40" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.265625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27" style="13" customWidth="1"/>
-    <col min="15" max="18" width="11.3984375" style="13"/>
+    <col min="14" max="14" width="27" style="10" customWidth="1"/>
+    <col min="15" max="18" width="11.3984375" style="10"/>
     <col min="19" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="25" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-    </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
+    <row r="1" spans="1:19" s="22" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -2204,96 +2202,96 @@
       <c r="R2" s="8"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="95" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="102" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="60" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="87" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="18"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2303,871 +2301,897 @@
       <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-    </row>
-    <row r="8" spans="1:19" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+    </row>
+    <row r="8" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="16"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="13"/>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="18"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="65" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="74" t="s">
+      <c r="E14" s="94"/>
+      <c r="F14" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="81" t="s">
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="60" t="s">
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="58"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="67" t="s">
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="77"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="22" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-    </row>
-    <row r="18" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-    </row>
-    <row r="19" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="42"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-    </row>
-    <row r="20" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-    </row>
-    <row r="21" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="42"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-    </row>
-    <row r="22" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-    </row>
-    <row r="23" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="42"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-    </row>
-    <row r="24" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="42"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-    </row>
-    <row r="25" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="42"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-    </row>
-    <row r="26" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="42"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-    </row>
-    <row r="27" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="42"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-    </row>
-    <row r="28" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-    </row>
-    <row r="29" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="42"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-    </row>
-    <row r="30" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="42"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-    </row>
-    <row r="31" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="42"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-    </row>
-    <row r="32" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-    </row>
-    <row r="33" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="42"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-    </row>
-    <row r="34" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="42"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-    </row>
-    <row r="35" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="42"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-    </row>
-    <row r="36" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="42"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-    </row>
-    <row r="37" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="42"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-    </row>
-    <row r="38" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="42"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-    </row>
-    <row r="39" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="42"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-    </row>
-    <row r="40" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="42"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-    </row>
-    <row r="41" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="42"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-    </row>
-    <row r="42" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-    </row>
-    <row r="43" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="42"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-    </row>
-    <row r="44" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="42"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-    </row>
-    <row r="45" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="42"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-    </row>
-    <row r="46" spans="1:18" s="41" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="39"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="39"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="39"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="39"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+    </row>
+    <row r="24" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="39"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+    </row>
+    <row r="27" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+    </row>
+    <row r="28" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+    </row>
+    <row r="29" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+    </row>
+    <row r="30" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+    </row>
+    <row r="31" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+    </row>
+    <row r="32" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="39"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="39"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="39"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+    </row>
+    <row r="35" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="39"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+    </row>
+    <row r="36" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="39"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+    </row>
+    <row r="37" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="39"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+    </row>
+    <row r="38" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="39"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+    </row>
+    <row r="39" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="39"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+    </row>
+    <row r="40" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="39"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+    </row>
+    <row r="41" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="39"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+    </row>
+    <row r="42" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="39"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+    </row>
+    <row r="43" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="39"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+    </row>
+    <row r="44" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="39"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+    </row>
+    <row r="45" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="39"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+    </row>
+    <row r="46" spans="1:18" s="38" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="I1:M1"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:H5"/>
@@ -3177,43 +3201,19 @@
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="F14:I14"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F7 F2:F3 F17:F1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F7 F17:F1048576 F3">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G7 G2:G3 G17:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G7 G17:G1048576 G3">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 H7 H13 H17:H1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H1048576 H7 H13 H3">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_en.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Production - Fwdtrace" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Production - Fwdtrace'!$A$1:$M$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Production - Fwdtrace'!$A$1:$M$48</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>EAN</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Please repeat the incoming good as often as necessary in order to capture all products.</t>
   </si>
   <si>
-    <t>In Column A starting with Line Number 20 please enter the line number of the incoming good being the ingredient of this product. Afterwards, enter product information in columns B to M.</t>
-  </si>
-  <si>
     <t>Inquired Company:</t>
   </si>
   <si>
@@ -155,6 +152,15 @@
   </si>
   <si>
     <t>For questions please contact the FoodRisk-Labs team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
+  </si>
+  <si>
+    <t>In Column A starting with Line Number x please enter the line number of the incoming good being the ingredient of this product. Afterwards, enter product information in columns B to M.</t>
+  </si>
+  <si>
+    <t>Digital extracts (e.g. Excel or XML files) of the company database could also be suitable. In this case you do not need to fill this template - please call us to find a solution (BfR FoodRiskLabs-Team, +49 (30) 18412-4444)</t>
+  </si>
+  <si>
+    <t>Then, please assess the data for the next incoming good(s) accordingly.</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1344,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1526,24 +1532,161 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1552,14 +1695,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,137 +1717,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2131,7 +2161,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2157,21 +2187,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="22" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="A1" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
@@ -2180,21 +2210,21 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
+      <c r="A2" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -2203,21 +2233,21 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="15"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -2225,73 +2255,73 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="68" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="65" t="s">
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="59" t="s">
+      <c r="K4" s="104"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="89" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="51" t="s">
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="89" t="s">
+      <c r="L5" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="60"/>
+      <c r="M5" s="90"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2301,11 +2331,11 @@
       <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="61"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:19" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2331,21 +2361,21 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -2401,7 +2431,7 @@
     </row>
     <row r="11" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="71"/>
@@ -2422,7 +2452,7 @@
       <c r="R11" s="12"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="70" t="s">
         <v>23</v>
       </c>
@@ -2445,170 +2475,176 @@
       <c r="R12" s="12"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="73" t="s">
+    <row r="13" spans="1:19" s="112" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="111"/>
+    </row>
+    <row r="14" spans="1:19" s="112" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="111"/>
+    </row>
+    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="93" t="s">
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="93" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="84" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="76" t="s">
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="59" t="s">
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="87"/>
-      <c r="B15" s="82" t="s">
+      <c r="N16" s="17"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="78"/>
+      <c r="B17" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C17" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D17" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E17" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F17" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="82" t="s">
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="95" t="s">
+      <c r="J17" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K17" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="95" t="s">
+      <c r="L17" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="60"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="88"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="19" t="s">
+      <c r="M17" s="90"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="79"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="83"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="29"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
@@ -2678,7 +2714,7 @@
     <row r="23" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="48"/>
@@ -2698,7 +2734,7 @@
     <row r="24" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="48"/>
@@ -3135,66 +3171,74 @@
       <c r="Q45" s="30"/>
       <c r="R45" s="30"/>
     </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="28"/>
+    <row r="46" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="39"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="41"/>
       <c r="N46" s="29"/>
       <c r="O46" s="30"/>
       <c r="P46" s="30"/>
       <c r="Q46" s="30"/>
       <c r="R46" s="30"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+    <row r="47" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="39"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+    </row>
+    <row r="48" spans="1:18" s="38" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A12:M12"/>
+  <mergeCells count="44">
     <mergeCell ref="A13:M13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A14:M14"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="F4:I4"/>
@@ -3203,17 +3247,51 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F7 F17:F1048576 F3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F7 F19:F1048576 F3">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13 G7 G17:G1048576 G3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15 G7 G19:G1048576 G3">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H1048576 H7 H13 H3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:H1048576 H7 H15 H3">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_en.xlsx
@@ -154,13 +154,13 @@
     <t>For questions please contact the FoodRisk-Labs team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
   </si>
   <si>
-    <t>In Column A starting with Line Number x please enter the line number of the incoming good being the ingredient of this product. Afterwards, enter product information in columns B to M.</t>
-  </si>
-  <si>
     <t>Digital extracts (e.g. Excel or XML files) of the company database could also be suitable. In this case you do not need to fill this template - please call us to find a solution (BfR FoodRiskLabs-Team, +49 (30) 18412-4444)</t>
   </si>
   <si>
     <t>Then, please assess the data for the next incoming good(s) accordingly.</t>
+  </si>
+  <si>
+    <t>In Column A starting with Line Number x please enter the line number of the incoming good being the ingredient of this product. enter the requested information into columns B onwards.</t>
   </si>
 </sst>
 </file>
@@ -1536,54 +1536,111 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1591,14 +1648,6 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1610,27 +1659,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1661,14 +1689,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="33" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1681,68 +1701,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2187,21 +2187,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="22" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
       <c r="K1" s="51"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
@@ -2210,21 +2210,21 @@
       <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -2233,21 +2233,21 @@
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="15"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -2255,73 +2255,73 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="96" t="s">
+      <c r="E4" s="73"/>
+      <c r="F4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="103" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="89" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="60" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
-      <c r="B5" s="94" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="94" t="s">
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="90"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="106"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2331,11 +2331,11 @@
       <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="99"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="62"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:19" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2361,21 +2361,21 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -2384,21 +2384,21 @@
       <c r="S8" s="13"/>
     </row>
     <row r="9" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -2407,21 +2407,21 @@
       <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -2430,21 +2430,21 @@
       <c r="S10" s="13"/>
     </row>
     <row r="11" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="A11" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -2453,21 +2453,21 @@
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -2475,94 +2475,94 @@
       <c r="R12" s="12"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" s="112" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="111"/>
-    </row>
-    <row r="14" spans="1:19" s="112" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="107" t="s">
+    <row r="13" spans="1:19" s="54" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="111"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
+    </row>
+    <row r="14" spans="1:19" s="54" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="82"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="66" t="s">
+      <c r="C16" s="85"/>
+      <c r="D16" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="85"/>
+      <c r="F16" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="83" t="s">
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="89" t="s">
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="60" t="s">
         <v>15</v>
       </c>
       <c r="N16" s="17"/>
@@ -2572,37 +2572,37 @@
       <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="78"/>
-      <c r="B17" s="73" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="73" t="s">
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="92" t="s">
+      <c r="J17" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="92" t="s">
+      <c r="K17" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="92" t="s">
+      <c r="L17" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="90"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="17"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -2610,11 +2610,11 @@
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="79"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="19" t="s">
         <v>11</v>
       </c>
@@ -2624,11 +2624,11 @@
       <c r="H18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="91"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="98"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -3237,11 +3237,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="B4:C4"/>
@@ -3252,35 +3270,17 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F7 F19:F1048576 F3">
